--- a/output/raw_data/USD_HKD.xlsx
+++ b/output/raw_data/USD_HKD.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6075"/>
+  <dimension ref="A1:B6104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -48984,7 +48984,239 @@
         <v>45901</v>
       </c>
       <c r="B6075">
-        <v>7.7947</v>
+        <v>7.7967</v>
+      </c>
+    </row>
+    <row r="6076" spans="1:2">
+      <c r="A6076" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B6076">
+        <v>7.8067</v>
+      </c>
+    </row>
+    <row r="6077" spans="1:2">
+      <c r="A6077" s="2">
+        <v>45903</v>
+      </c>
+      <c r="B6077">
+        <v>7.8004</v>
+      </c>
+    </row>
+    <row r="6078" spans="1:2">
+      <c r="A6078" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B6078">
+        <v>7.801</v>
+      </c>
+    </row>
+    <row r="6079" spans="1:2">
+      <c r="A6079" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B6079">
+        <v>7.7969</v>
+      </c>
+    </row>
+    <row r="6080" spans="1:2">
+      <c r="A6080" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B6080">
+        <v>7.7931</v>
+      </c>
+    </row>
+    <row r="6081" spans="1:2">
+      <c r="A6081" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B6081">
+        <v>7.789</v>
+      </c>
+    </row>
+    <row r="6082" spans="1:2">
+      <c r="A6082" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B6082">
+        <v>7.7895</v>
+      </c>
+    </row>
+    <row r="6083" spans="1:2">
+      <c r="A6083" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B6083">
+        <v>7.789</v>
+      </c>
+    </row>
+    <row r="6084" spans="1:2">
+      <c r="A6084" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B6084">
+        <v>7.7781</v>
+      </c>
+    </row>
+    <row r="6085" spans="1:2">
+      <c r="A6085" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B6085">
+        <v>7.7797</v>
+      </c>
+    </row>
+    <row r="6086" spans="1:2">
+      <c r="A6086" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B6086">
+        <v>7.7802</v>
+      </c>
+    </row>
+    <row r="6087" spans="1:2">
+      <c r="A6087" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B6087">
+        <v>7.7783</v>
+      </c>
+    </row>
+    <row r="6088" spans="1:2">
+      <c r="A6088" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B6088">
+        <v>7.7779</v>
+      </c>
+    </row>
+    <row r="6089" spans="1:2">
+      <c r="A6089" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B6089">
+        <v>7.7743</v>
+      </c>
+    </row>
+    <row r="6090" spans="1:2">
+      <c r="A6090" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B6090">
+        <v>7.7698</v>
+      </c>
+    </row>
+    <row r="6091" spans="1:2">
+      <c r="A6091" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B6091">
+        <v>7.7758</v>
+      </c>
+    </row>
+    <row r="6092" spans="1:2">
+      <c r="A6092" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B6092">
+        <v>7.7786</v>
+      </c>
+    </row>
+    <row r="6093" spans="1:2">
+      <c r="A6093" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B6093">
+        <v>7.7833</v>
+      </c>
+    </row>
+    <row r="6094" spans="1:2">
+      <c r="A6094" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B6094">
+        <v>7.7795</v>
+      </c>
+    </row>
+    <row r="6095" spans="1:2">
+      <c r="A6095" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B6095">
+        <v>7.7838</v>
+      </c>
+    </row>
+    <row r="6096" spans="1:2">
+      <c r="A6096" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B6096">
+        <v>7.7825</v>
+      </c>
+    </row>
+    <row r="6097" spans="1:2">
+      <c r="A6097" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B6097">
+        <v>7.7817</v>
+      </c>
+    </row>
+    <row r="6098" spans="1:2">
+      <c r="A6098" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B6098">
+        <v>7.7828</v>
+      </c>
+    </row>
+    <row r="6099" spans="1:2">
+      <c r="A6099" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B6099">
+        <v>7.7808</v>
+      </c>
+    </row>
+    <row r="6100" spans="1:2">
+      <c r="A6100" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B6100">
+        <v>7.7827</v>
+      </c>
+    </row>
+    <row r="6101" spans="1:2">
+      <c r="A6101" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B6101">
+        <v>7.7831</v>
+      </c>
+    </row>
+    <row r="6102" spans="1:2">
+      <c r="A6102" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B6102">
+        <v>7.7823</v>
+      </c>
+    </row>
+    <row r="6103" spans="1:2">
+      <c r="A6103" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B6103">
+        <v>7.7817</v>
+      </c>
+    </row>
+    <row r="6104" spans="1:2">
+      <c r="A6104" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B6104">
+        <v>7.7824</v>
       </c>
     </row>
   </sheetData>
